--- a/biology/Botanique/Cyatheales/Cyatheales.xlsx
+++ b/biology/Botanique/Cyatheales/Cyatheales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyatheales (en français Cyathéales[1]) sont un ordre de fougères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyatheales (en français Cyathéales) sont un ordre de fougères.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les frondes des fougères arborescentes sont généralement très grandes et très découpées, mais au moins un genre a des frondes entières. Comme chez les autres fougères, les frondes apparaissent sous forme de crosse qui se déroule et s'allonge progressivement.
 À la différence des angiospermes, les fougères arborescentes ne forment pas de tissu ligneux dans leur tronc lorsque celui-ci croît. Le tronc est simplement soutenu par la masse fibreuse des racines qui poussent tout le long du tronc.
@@ -551,7 +565,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">à Les fougères arborescentes poussent généralement dans les régions tropicales et subtropicales et dans les forêts humides des régions froides et tempérées en Australie, Nouvelle-Zélande, Malaisie, dans l'île Lord Howe et d'autres îles des environs, dans les îles de l'Océan Indien (notamment Madagascar, La Réunion et Maurice, où on les appelle en créole fanjan) et en Amérique latine. Quelques rares genres poussent ailleurs, comme le genre Cyathea en Europe du Sud.
 </t>
@@ -582,7 +598,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît pas le nombre exact de genres de fougères arborescentes existant actuellement. Chaque expédition en Nouvelle-Guinée en découvre toujours de nouvelles. À l'inverse, beaucoup d'espèces ont disparu et continuent de disparaitre sous la pression de l'intervention humaine.
 Thyrsopteridaceae
@@ -636,9 +654,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 mars 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 mars 2021) :
 Hymenophyllopsida Doweld
 Metaxyales Doweld
 Hymenophyllopsidales Pic.Serm. ex Reveal
@@ -673,9 +693,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
